--- a/output/ExceptionRecords/consolidated.xlsx
+++ b/output/ExceptionRecords/consolidated.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,11 @@
           <t>Comments</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>team</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -591,12 +596,13 @@
       <c r="P2" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
         <is>
           <t>BONDS</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -657,12 +663,13 @@
       <c r="P3" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
         <is>
           <t>BONDS</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -725,14 +732,15 @@
       <c r="P4" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>ewrwe</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>BONDS</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>ewrwe</t>
         </is>
       </c>
     </row>
@@ -795,14 +803,15 @@
       <c r="P5" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>ewrwe</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>BONDS</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>ewrwe</t>
         </is>
       </c>
     </row>
@@ -833,6 +842,11 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>BONDS</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -897,12 +911,13 @@
       <c r="P7" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
         <is>
           <t>BONDS</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -965,14 +980,15 @@
       <c r="P8" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>ewrew</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>BONDS</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>ewrew</t>
         </is>
       </c>
     </row>
@@ -1037,14 +1053,15 @@
       <c r="P9" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>werewr</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>BONDS</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>werewr</t>
         </is>
       </c>
     </row>
@@ -1109,14 +1126,15 @@
       <c r="P10" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>FXMM</t>
-        </is>
-      </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
           <t>Belongs To FXMM</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>EQD STRUCT</t>
         </is>
       </c>
     </row>
@@ -1179,14 +1197,15 @@
       <c r="P11" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>FXMM</t>
-        </is>
-      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
           <t>Belongs To FXMM</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>EQD STRUCT</t>
         </is>
       </c>
     </row>
@@ -1251,14 +1270,15 @@
       <c r="P12" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>sdfsd</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>EQD STRUCT</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>sdfsd</t>
         </is>
       </c>
     </row>
@@ -1321,14 +1341,15 @@
       <c r="P13" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>sdfsd</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>EQD STRUCT</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>sdfsd</t>
         </is>
       </c>
     </row>
@@ -1359,6 +1380,11 @@
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>EQD STRUCT</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -1419,12 +1445,13 @@
       <c r="P15" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
         <is>
           <t>EQD STRUCT</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1487,14 +1514,15 @@
       <c r="P16" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>sdfdsf</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>EQD STRUCT</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>sdfdsf</t>
         </is>
       </c>
     </row>
@@ -1559,14 +1587,15 @@
       <c r="P17" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>EQD STRUCT</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>dsf</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1625,16 @@
         <v>44120.59492453704</v>
       </c>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>reversal</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>EQD STRUCT</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -1661,14 +1699,15 @@
       <c r="P19" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>reversal</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
         <is>
           <t>EQD STRUCT</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>reversal</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1737,16 @@
         <v>44120.59492453704</v>
       </c>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>reversal</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>EQD STRUCT</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -1763,14 +1811,15 @@
       <c r="P21" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>reversal</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
         <is>
           <t>EQD STRUCT</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>reversal</t>
         </is>
       </c>
     </row>
@@ -1835,14 +1884,15 @@
       <c r="P22" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>ack</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
         <is>
           <t>FXMM</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>ack</t>
         </is>
       </c>
     </row>
@@ -1905,14 +1955,15 @@
       <c r="P23" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>ack</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
         <is>
           <t>FXMM</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>ack</t>
         </is>
       </c>
     </row>
@@ -1977,14 +2028,15 @@
       <c r="P24" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>not ours</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
         <is>
           <t>FXMM</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>not ours</t>
         </is>
       </c>
     </row>
@@ -2047,14 +2099,15 @@
       <c r="P25" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>not ours</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
         <is>
           <t>FXMM</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>not ours</t>
         </is>
       </c>
     </row>
